--- a/船只轨迹计算结果.xlsx
+++ b/船只轨迹计算结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,60 +477,118 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10457</v>
+        <v>10095</v>
       </c>
       <c r="B2" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01571404186456249</v>
+        <v>0.01535830831430296</v>
       </c>
       <c r="E2" t="n">
-        <v>8.10563911154269</v>
+        <v>8.187187303626144</v>
       </c>
       <c r="F2" t="n">
-        <v>6.704223000670465</v>
+        <v>6.839799586189504</v>
       </c>
       <c r="G2" t="n">
-        <v>11.46310476324548</v>
+        <v>13.00956940226935</v>
       </c>
       <c r="H2" t="n">
-        <v>22.28268556730712</v>
+        <v>25.28879830936425</v>
       </c>
       <c r="I2" t="n">
-        <v>1.414213562373095</v>
+        <v>1.58901572906575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11953</v>
+        <v>10534</v>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01571404186456249</v>
+        <v>0.004864759856236134</v>
       </c>
       <c r="E3" t="n">
-        <v>8.10563911154269</v>
+        <v>8.455352890002271</v>
       </c>
       <c r="F3" t="n">
-        <v>6.704223000670465</v>
+        <v>7.295203315762218</v>
       </c>
       <c r="G3" t="n">
-        <v>17.26545280707318</v>
+        <v>15.52469130268817</v>
       </c>
       <c r="H3" t="n">
-        <v>33.56164529794179</v>
+        <v>30.17784640130661</v>
       </c>
       <c r="I3" t="n">
-        <v>2.130054468189513</v>
+        <v>1.836078458776663</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>10886</v>
+      </c>
+      <c r="B4" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.004864759856236134</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.455352890002271</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.295203315762218</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.44056334052533</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33.9020358847005</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.062665339627314</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>11415</v>
+      </c>
+      <c r="B5" t="n">
+        <v>129</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01535830831430296</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.187187303626144</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.839799586189504</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.12896414179325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39.12791412369422</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.458593335574238</v>
       </c>
     </row>
   </sheetData>

--- a/船只轨迹计算结果.xlsx
+++ b/船只轨迹计算结果.xlsx
@@ -477,118 +477,118 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10095</v>
+        <v>9833</v>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01535830831430296</v>
+        <v>0.01623870434005426</v>
       </c>
       <c r="E2" t="n">
-        <v>8.187187303626144</v>
+        <v>7.802199137862885</v>
       </c>
       <c r="F2" t="n">
-        <v>6.839799586189504</v>
+        <v>6.211664427231463</v>
       </c>
       <c r="G2" t="n">
-        <v>13.00956940226935</v>
+        <v>11.23170679237272</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28879830936425</v>
+        <v>21.83288001005505</v>
       </c>
       <c r="I2" t="n">
-        <v>1.58901572906575</v>
+        <v>1.439556539625726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10534</v>
+        <v>10447</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004864759856236134</v>
+        <v>0.01399693613023167</v>
       </c>
       <c r="E3" t="n">
-        <v>8.455352890002271</v>
+        <v>8.412821181311847</v>
       </c>
       <c r="F3" t="n">
-        <v>7.295203315762218</v>
+        <v>7.221995941707066</v>
       </c>
       <c r="G3" t="n">
-        <v>15.52469130268817</v>
+        <v>14.66730613069144</v>
       </c>
       <c r="H3" t="n">
-        <v>30.17784640130661</v>
+        <v>28.51120855822144</v>
       </c>
       <c r="I3" t="n">
-        <v>1.836078458776663</v>
+        <v>1.743446795621098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10886</v>
+        <v>11063</v>
       </c>
       <c r="B4" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004864759856236134</v>
+        <v>0.01399693613023167</v>
       </c>
       <c r="E4" t="n">
-        <v>8.455352890002271</v>
+        <v>8.412821181311847</v>
       </c>
       <c r="F4" t="n">
-        <v>7.295203315762218</v>
+        <v>7.221995941707066</v>
       </c>
       <c r="G4" t="n">
-        <v>17.44056334052533</v>
+        <v>17.91976734733267</v>
       </c>
       <c r="H4" t="n">
-        <v>33.9020358847005</v>
+        <v>34.83354200165748</v>
       </c>
       <c r="I4" t="n">
-        <v>2.062665339627314</v>
+        <v>2.130054468189513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11415</v>
+        <v>11857</v>
       </c>
       <c r="B5" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01535830831430296</v>
+        <v>0.01623870434005514</v>
       </c>
       <c r="E5" t="n">
-        <v>8.187187303626144</v>
+        <v>7.802199137862885</v>
       </c>
       <c r="F5" t="n">
-        <v>6.839799586189504</v>
+        <v>6.211664427231463</v>
       </c>
       <c r="G5" t="n">
-        <v>20.12896414179325</v>
+        <v>21.77147579118715</v>
       </c>
       <c r="H5" t="n">
-        <v>39.12791412369422</v>
+        <v>42.32072893085132</v>
       </c>
       <c r="I5" t="n">
-        <v>2.458593335574238</v>
+        <v>2.790428109625336</v>
       </c>
     </row>
   </sheetData>
